--- a/RegressionTests/Unit_Test_5/expected_Ext_rows(1)/expected_aptrans_anon.608407-20_12_01 NOV 945.74.XLSX
+++ b/RegressionTests/Unit_Test_5/expected_Ext_rows(1)/expected_aptrans_anon.608407-20_12_01 NOV 945.74.XLSX
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>REFNO</t>
   </si>
@@ -163,19 +163,10 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>refno</t>
-  </si>
-  <si>
-    <t>forename</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>ee</t>
+    <t>FORENAME</t>
+  </si>
+  <si>
+    <t>SURNAME</t>
   </si>
   <si>
     <t>693267</t>
@@ -1690,25 +1681,25 @@
         <v>46</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>49</v>
-      </c>
       <c r="E1" s="30" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="31"/>
       <c r="B2" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>9</v>
@@ -1726,7 +1717,7 @@
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="31"/>
       <c r="B3" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>11</v>
@@ -1744,7 +1735,7 @@
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="31"/>
       <c r="B4" s="28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>13</v>
@@ -1781,24 +1772,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1838,22 +1829,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_5/expected_Ext_rows(1)/expected_aptrans_anon.608407-20_12_01 NOV 945.74.XLSX
+++ b/RegressionTests/Unit_Test_5/expected_Ext_rows(1)/expected_aptrans_anon.608407-20_12_01 NOV 945.74.XLSX
@@ -9,9 +9,8 @@
   <sheets>
     <sheet name="~Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="$Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="#Sheet1" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="#Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>REFNO</t>
   </si>
@@ -169,12 +168,24 @@
     <t>SURNAME</t>
   </si>
   <si>
+    <t>Refno 0693267 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>693267</t>
   </si>
   <si>
+    <t>Refno 0780087 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>780087</t>
   </si>
   <si>
+    <t>Refno 0780094 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>780094</t>
   </si>
   <si>
@@ -190,19 +201,172 @@
     <t>945.74</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1178489</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1149840</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,177.74</t>
+  </si>
+  <si>
+    <t>Revised Risk (Total/12*4)</t>
+  </si>
+  <si>
+    <t>1122062</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>19,974.02</t>
+  </si>
+  <si>
+    <t>2020Risk</t>
+  </si>
+  <si>
+    <t>1067417</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>15,889.15</t>
+  </si>
+  <si>
+    <t>2019 Costs</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>30/05/2000</t>
+  </si>
+  <si>
+    <t>06/04/2000</t>
+  </si>
+  <si>
+    <t>1,250.13</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>May 00</t>
+  </si>
+  <si>
+    <t>35036</t>
+  </si>
+  <si>
+    <t>24/05/2000</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Apr '00 intd</t>
+  </si>
+  <si>
+    <t>29038</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>Mar 00</t>
   </si>
 </sst>
 </file>
@@ -214,7 +378,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="MM/YY"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,8 +446,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,8 +466,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,18 +496,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +559,7 @@
       <alignment/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -505,18 +672,17 @@
       <alignment horizontal="left"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1672,7 +1838,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="28"/>
+    <col min="1" max="1" width="47.25" style="28"/>
     <col min="2" max="16384" width="9.25" style="28"/>
   </cols>
   <sheetData>
@@ -1696,10 +1862,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="31"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="31" t="s">
+        <v>49</v>
+      </c>
       <c r="B2" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>9</v>
@@ -1714,10 +1882,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="B3" s="28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>11</v>
@@ -1732,10 +1902,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="31" t="s">
+        <v>53</v>
+      </c>
       <c r="B4" s="28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>13</v>
@@ -1758,38 +1930,350 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="17.75" style="28"/>
+    <col min="2" max="2" width="14.125" style="28"/>
+    <col min="3" max="3" width="8.25" style="28"/>
+    <col min="4" max="4" width="15.75" style="28"/>
+    <col min="5" max="5" width="13.25" style="28"/>
+    <col min="6" max="6" width="12.625" style="28"/>
+    <col min="7" max="7" width="15.75" style="28"/>
+    <col min="8" max="8" width="10.5" style="28"/>
+    <col min="9" max="9" width="22.125" style="28"/>
+    <col min="10" max="16384" width="9.25" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="28">
+        <v>645.74</v>
+      </c>
+      <c r="B2" s="28">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="32"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="33" t="s">
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="33" t="s">
+    </row>
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" s="28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="28" t="s">
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B12" s="32" t="s">
         <v>60</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1799,61 +2283,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9.25" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="28">
-        <v>645.74</v>
-      </c>
-      <c r="B2" s="28">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15">
-      <c r="A9" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/RegressionTests/Unit_Test_5/expected_Ext_rows(1)/expected_aptrans_anon.608407-20_12_01 NOV 945.74.XLSX
+++ b/RegressionTests/Unit_Test_5/expected_Ext_rows(1)/expected_aptrans_anon.608407-20_12_01 NOV 945.74.XLSX
@@ -524,10 +524,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -559,7 +559,7 @@
       <alignment/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -673,11 +673,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1883,7 +1886,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -1903,7 +1906,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="28" t="s">
@@ -1987,31 +1990,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="33" t="s">
         <v>67</v>
       </c>
     </row>
